--- a/Assets/Resources/Excel/OrderConfig.xlsx
+++ b/Assets/Resources/Excel/OrderConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC787A2-6E23-44A9-91AD-5B1E61B87290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCFAD5-9E7D-4C09-A172-771CF56AAAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>NeedItemNums</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +490,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,7 +541,9 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
@@ -561,7 +567,9 @@
       <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
@@ -585,7 +593,9 @@
       <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
@@ -593,7 +603,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>14</v>

--- a/Assets/Resources/Excel/OrderConfig.xlsx
+++ b/Assets/Resources/Excel/OrderConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCFAD5-9E7D-4C09-A172-771CF56AAAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503444C9-2116-43CA-B0DD-0902A7E082A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Assets/Resources/Excel/OrderConfig.xlsx
+++ b/Assets/Resources/Excel/OrderConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503444C9-2116-43CA-B0DD-0902A7E082A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60F18F0-041C-419E-80E1-06AE984B382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100404,1100404]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +502,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -591,16 +603,16 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>

--- a/Assets/Resources/Excel/OrderConfig.xlsx
+++ b/Assets/Resources/Excel/OrderConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60F18F0-041C-419E-80E1-06AE984B382F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF0283-98C0-4D2D-B83A-C4DDE50E5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1090102]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[-1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[1100404]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -91,15 +83,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1100404,1100404]</t>
+    <t>[20]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1090102,1090103]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100911,1100404]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[1,1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[20]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -528,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>6</v>
@@ -577,10 +573,10 @@
         <v>109</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>11</v>
@@ -592,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,23 +599,45 @@
         <v>109</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1090103</v>
+      </c>
+      <c r="B5" s="5">
+        <v>109</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Resources/Excel/OrderConfig.xlsx
+++ b/Assets/Resources/Excel/OrderConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF0283-98C0-4D2D-B83A-C4DDE50E5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC98302-2D03-44A7-8D95-C24E9EDDAB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -96,6 +96,58 @@
   </si>
   <si>
     <t>[1,1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100305]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100302,1100605]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1110102,1110103]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100906,1100404]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1110202,1110203,1110204]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100303,1100602]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1110205]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100903,1100404]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100904]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100304]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100604]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100303,1100603]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1110104,1110105]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -639,6 +691,334 @@
       </c>
       <c r="H5" s="10"/>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>1110101</v>
+      </c>
+      <c r="B6" s="5">
+        <v>111</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>1110201</v>
+      </c>
+      <c r="B7" s="5">
+        <v>111</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>1110102</v>
+      </c>
+      <c r="B8" s="5">
+        <v>111</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>1110103</v>
+      </c>
+      <c r="B9" s="5">
+        <v>111</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>1110104</v>
+      </c>
+      <c r="B10" s="5">
+        <v>111</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1110105</v>
+      </c>
+      <c r="B11" s="5">
+        <v>111</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1110202</v>
+      </c>
+      <c r="B12" s="5">
+        <v>111</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>1110203</v>
+      </c>
+      <c r="B13" s="5">
+        <v>111</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>1110204</v>
+      </c>
+      <c r="B14" s="5">
+        <v>111</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>1110205</v>
+      </c>
+      <c r="B15" s="5">
+        <v>111</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Excel/OrderConfig.xlsx
+++ b/Assets/Resources/Excel/OrderConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Games\MergeAdventure\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC98302-2D03-44A7-8D95-C24E9EDDAB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36205D9D-A1F7-4874-AE4A-953F56943F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1110202,1110203,1110204]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[1100303,1100602]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,18 +123,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1100903,1100404]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[1100904]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[1100304]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[1100604]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -148,6 +136,18 @@
   </si>
   <si>
     <t>[1110104,1110105]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100904,1100404]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1110203,1110204]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1110202]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,11 +711,9 @@
         <v>12</v>
       </c>
       <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -725,7 +723,7 @@
         <v>111</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>19</v>
@@ -740,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -766,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -801,7 +799,7 @@
         <v>111</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>19</v>
@@ -825,7 +823,7 @@
         <v>111</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>15</v>
@@ -864,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -875,7 +873,7 @@
         <v>111</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>15</v>
@@ -889,7 +887,9 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -899,7 +899,7 @@
         <v>111</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>19</v>
@@ -913,7 +913,9 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="5"/>
+      <c r="H14" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
@@ -923,7 +925,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>15</v>
